--- a/experiments/evaluation/llm-based/roberta-base_15/rem-100_remove/rem5/word_level_predictions.xlsx
+++ b/experiments/evaluation/llm-based/roberta-base_15/rem-100_remove/rem5/word_level_predictions.xlsx
@@ -501,12 +501,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Compass</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -553,12 +553,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -566,12 +566,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -605,12 +605,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>velocity</t>
+          <t>Compass</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -618,12 +618,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -657,12 +657,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ensure</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -670,12 +670,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -683,7 +683,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -691,7 +691,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K5" t="b">
@@ -709,12 +709,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>Compass</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -722,12 +722,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -735,7 +735,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -743,7 +743,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K6" t="b">
@@ -761,12 +761,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>aircraft</t>
+          <t>data</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -774,12 +774,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -787,7 +787,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -795,7 +795,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K7" t="b">
@@ -813,12 +813,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>remains</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -826,12 +826,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -839,7 +839,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -847,7 +847,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K8" t="b">
@@ -865,12 +865,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>Please</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -917,12 +917,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>contact</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -969,12 +969,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>Support</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sight</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1086,28 +1086,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K13" t="b">
@@ -1121,29 +1121,29 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>12</v>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K14" t="b">
@@ -1173,29 +1173,29 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fly</t>
+          <t>signal</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K15" t="b">
@@ -1225,29 +1225,29 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K16" t="b">
@@ -1277,29 +1277,29 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>caution</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1329,29 +1329,29 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>with</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K18" t="b">
@@ -1381,29 +1381,29 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>caution</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K19" t="b">
@@ -1433,29 +1433,29 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>velocity</t>
+          <t>Aircraft</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K20" t="b">
@@ -1485,29 +1485,29 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>in</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1537,20 +1537,20 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>Altitude</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1589,29 +1589,29 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>caution</t>
+          <t>Zone</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1641,29 +1641,29 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K24" t="b">
@@ -1693,29 +1693,29 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>land</t>
+          <t>altitude</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K25" t="b">
@@ -1745,29 +1745,29 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>set</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K26" t="b">
@@ -1797,29 +1797,29 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>to</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K27" t="b">
@@ -1849,29 +1849,29 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>safe</t>
+          <t>nnn</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K28" t="b">
@@ -1901,45 +1901,45 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
         <v>0</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>27</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K29" t="b">
@@ -1953,29 +1953,29 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>ASAP</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>28</v>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K30" t="b">
@@ -2005,7 +2005,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2014,36 +2014,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K31" t="b">
@@ -2057,29 +2057,29 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>velocity</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -2109,29 +2109,29 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>speed</t>
+          <t>Ensure</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K33" t="b">
@@ -2161,29 +2161,29 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>the</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K34" t="b">
@@ -2213,29 +2213,29 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>aircraft</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -2265,20 +2265,20 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>remains</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2317,20 +2317,20 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>return</t>
+          <t>within</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2369,20 +2369,20 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>your</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2421,20 +2421,20 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>line</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2473,29 +2473,29 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>promptly</t>
+          <t>of</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2525,29 +2525,29 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>After</t>
+          <t>sight</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2577,20 +2577,20 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>powering</t>
+          <t>and</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2629,20 +2629,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>fly</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2681,20 +2681,20 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>with</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2733,29 +2733,29 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>aircraft,</t>
+          <t>caution</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2785,29 +2785,29 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>replace</t>
+          <t>High</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K46" t="b">
@@ -2837,29 +2837,29 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K47" t="b">
@@ -2889,29 +2889,29 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>propeller</t>
+          <t>velocity</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K48" t="b">
@@ -2941,29 +2941,29 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2993,20 +2993,20 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>with</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3045,20 +3045,20 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>beeping</t>
+          <t>caution</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3097,29 +3097,29 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ESC</t>
+          <t>and</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -3149,29 +3149,29 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>If</t>
+          <t>land</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -3201,20 +3201,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>in</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3253,20 +3253,20 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>issue</t>
+          <t>a</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3305,20 +3305,20 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>persists,</t>
+          <t>safe</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3357,20 +3357,20 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>contact</t>
+          <t>place</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3409,29 +3409,29 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>ASAP</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -3461,45 +3461,45 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K59" t="b">
@@ -3513,7 +3513,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3522,36 +3522,36 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K60" t="b">
@@ -3565,29 +3565,29 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Compass</t>
+          <t>speed</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -3617,20 +3617,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>2</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3669,29 +3669,29 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Compass</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I63" t="b">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K63" t="b">
@@ -3721,29 +3721,29 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>or</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I64" t="b">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K64" t="b">
@@ -3773,29 +3773,29 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Compass</t>
+          <t>return</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K65" t="b">
@@ -3825,29 +3825,29 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>to</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I66" t="b">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K66" t="b">
@@ -3877,29 +3877,29 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>home</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I67" t="b">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K67" t="b">
@@ -3929,29 +3929,29 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Please</t>
+          <t>promptly</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3981,29 +3981,29 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>contact</t>
+          <t>After</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -4033,20 +4033,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>powering</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4085,29 +4085,29 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -4137,45 +4137,45 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>the</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K72" t="b">
@@ -4193,25 +4193,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GPS</t>
+          <t>aircraft,</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I73" t="b">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K73" t="b">
@@ -4245,25 +4245,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>signal</t>
+          <t>replace</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K74" t="b">
@@ -4297,25 +4297,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>the</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G75" t="b">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K75" t="b">
@@ -4349,25 +4349,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>propeller</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G76" t="b">
@@ -4401,16 +4401,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>on</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4453,25 +4453,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>caution</t>
+          <t>the</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4505,25 +4505,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Aircraft</t>
+          <t>beeping</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4557,25 +4557,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>ESC</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -4609,25 +4609,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Altitude</t>
+          <t>If</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -4661,25 +4661,25 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Zone</t>
+          <t>the</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -4713,25 +4713,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>issue</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I83" t="b">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K83" t="b">
@@ -4765,25 +4765,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>altitude</t>
+          <t>persists,</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K84" t="b">
@@ -4817,25 +4817,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>contact</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K85" t="b">
@@ -4869,25 +4869,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K86" t="b">
@@ -4921,25 +4921,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>nnn</t>
+          <t>Support</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K87" t="b">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
